--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F12-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F12-Gp1ba.xlsx
@@ -543,7 +543,7 @@
         <v>0.1844006666666667</v>
       </c>
       <c r="H2">
-        <v>0.5532020000000001</v>
+        <v>0.553202</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N2">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O2">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P2">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q2">
-        <v>0.4264843205422222</v>
+        <v>0.3323666505437777</v>
       </c>
       <c r="R2">
-        <v>3.83835888488</v>
+        <v>2.991299854894</v>
       </c>
       <c r="S2">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="T2">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.1844006666666667</v>
       </c>
       <c r="H3">
-        <v>0.5532020000000001</v>
+        <v>0.553202</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>10.113169</v>
       </c>
       <c r="O3">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P3">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q3">
-        <v>0.6216250352375556</v>
+        <v>0.6216250352375555</v>
       </c>
       <c r="R3">
-        <v>5.594625317138</v>
+        <v>5.594625317137999</v>
       </c>
       <c r="S3">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="T3">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.1844006666666667</v>
       </c>
       <c r="H4">
-        <v>0.5532020000000001</v>
+        <v>0.553202</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N4">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O4">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P4">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q4">
-        <v>0.1520396404713333</v>
+        <v>0.1697359577824444</v>
       </c>
       <c r="R4">
-        <v>1.368356764242</v>
+        <v>1.527623620042</v>
       </c>
       <c r="S4">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="T4">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.1844006666666667</v>
       </c>
       <c r="H5">
-        <v>0.5532020000000001</v>
+        <v>0.553202</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N5">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O5">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P5">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q5">
-        <v>0.292886160476</v>
+        <v>0.3610175967926667</v>
       </c>
       <c r="R5">
-        <v>1.757316962856</v>
+        <v>2.166105580756</v>
       </c>
       <c r="S5">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="T5">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.1844006666666667</v>
       </c>
       <c r="H6">
-        <v>0.5532020000000001</v>
+        <v>0.553202</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N6">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O6">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P6">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q6">
-        <v>0.1569125510217778</v>
+        <v>0.3299050860444444</v>
       </c>
       <c r="R6">
-        <v>1.412212959196</v>
+        <v>2.969145774399999</v>
       </c>
       <c r="S6">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="T6">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
     </row>
   </sheetData>
